--- a/src/main/resources/50-sample-contacts-list-excel.xlsx
+++ b/src/main/resources/50-sample-contacts-list-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fireb\IdeaProjects\SEHealthClub\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C8D7AC-68EE-4F1D-9657-2110D69BC736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68048C4B-D201-4165-9671-1FA287D09759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="516" windowWidth="14340" windowHeight="12444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="60" windowWidth="14340" windowHeight="12444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="50-contacts-1" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
     <t>membership_type</t>
   </si>
   <si>
-    <t>James000</t>
+    <t>James</t>
   </si>
 </sst>
 </file>
